--- a/Gastos.xlsx
+++ b/Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\TFG_IC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Universidad\Cuarto\TFG_IC\ENTREGATFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279DD237-41D4-49C2-B3B8-935BE962A28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EE927E-89E5-4993-B550-BB63E51E6182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{CB3CB793-1702-4E36-9123-D29A8C8C5211}"/>
+    <workbookView xWindow="28680" yWindow="-8985" windowWidth="29040" windowHeight="16440" xr2:uid="{CB3CB793-1702-4E36-9123-D29A8C8C5211}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>MATERIALES LEROY MERLIN</t>
   </si>
@@ -113,42 +113,21 @@
     <t>https://es.aliexpress.com/item/1005006125242045.html</t>
   </si>
   <si>
-    <t>Sensor de calidad del aire, temperatura y humedad</t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/1005004926993351.html</t>
   </si>
   <si>
-    <t>Módulo de sensor de luz ambiental</t>
-  </si>
-  <si>
     <t>https://es.aliexpress.com/item/1005006389574525.html</t>
   </si>
   <si>
-    <t>Módulo de sensor de nivel de agua</t>
-  </si>
-  <si>
-    <t>Módulo capacitivo de sensor de humedad del suelo - Capacitive Soil</t>
-  </si>
-  <si>
     <t>Bomba de motor sumergible - Amphibious Type</t>
   </si>
   <si>
     <t>https://es.aliexpress.com/item/1005005630775595.html</t>
   </si>
   <si>
-    <t>Módulo  de sensor de temperatura y humedad</t>
-  </si>
-  <si>
     <t>TOTAL ALIEXPRESS</t>
   </si>
   <si>
-    <t>TOTAL BAZAR</t>
-  </si>
-  <si>
-    <t>MATERIALES BAZAR</t>
-  </si>
-  <si>
     <t>Semilla de perejil Común</t>
   </si>
   <si>
@@ -179,12 +158,6 @@
     <t>Semilla de orégano Mejorana</t>
   </si>
   <si>
-    <t>https://www.leroymerlin.es/productos/jardin-y-terraza/riego/riego-por-goteo/tuberia-microtubo-riego-por-goteo-6-mm-4bar-15-m-17063473.html</t>
-  </si>
-  <si>
-    <t>Tubería microtubo riego por goteo 6 mm 15 m</t>
-  </si>
-  <si>
     <t>https://www.leroymerlin.es/productos/jardin-y-terraza/riego/ayuda-con-el-riego/riego-por-goteo-para-huerto/pack-10-goteros-regulables-0-60-l-h-geolia-83210897.html</t>
   </si>
   <si>
@@ -200,9 +173,6 @@
     <t>Sustrato universal 20L</t>
   </si>
   <si>
-    <t>https://www.leroymerlin.es/productos/jardin-y-terraza/abono-y-cuidado-de-plantas/abonos-y-fertilizantes/sustrato-universal-floragard-20-litros-oferta-exclusiva-88594195.html</t>
-  </si>
-  <si>
     <t>Placa Policarbonato 2x1M</t>
   </si>
   <si>
@@ -216,6 +186,156 @@
   </si>
   <si>
     <t>TOTAL PROYECTO</t>
+  </si>
+  <si>
+    <t>Tornillos 3x35</t>
+  </si>
+  <si>
+    <t>Tornillos 3x25</t>
+  </si>
+  <si>
+    <t>Módulo  de sensor de temperatura y humedad - AHT10</t>
+  </si>
+  <si>
+    <t>Módulo de sensor de nivel de agua analógico</t>
+  </si>
+  <si>
+    <t>Módulo de sensor de luz ambiental - VEML7700</t>
+  </si>
+  <si>
+    <t>Conversor CC CC</t>
+  </si>
+  <si>
+    <t>Placa de pruebas horizontal</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006990183423.html</t>
+  </si>
+  <si>
+    <t>Conectores macho DC</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005005827656117.html</t>
+  </si>
+  <si>
+    <t>Módulo de carga batería 18650 - MCP73871</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006864225593.html</t>
+  </si>
+  <si>
+    <t>Placa de expansión ESP32</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006124044428.html</t>
+  </si>
+  <si>
+    <t>Módulo indicador capacidad batería litio</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005005968856522.html</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005006283625827.html</t>
+  </si>
+  <si>
+    <t>Soporte batería 18650 (3 uds)</t>
+  </si>
+  <si>
+    <t>MATERIALES  AMAZON</t>
+  </si>
+  <si>
+    <t>Placa de desarrollo ESP32 NodeMCU</t>
+  </si>
+  <si>
+    <t>TOTAL AMAZON</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/dp/B0D6ZWTSD7</t>
+  </si>
+  <si>
+    <t>B0D6ZWTSD7</t>
+  </si>
+  <si>
+    <t>Batería litio 18650  2500mAh 3,7v</t>
+  </si>
+  <si>
+    <t>Módulo capacitivo sensor de humedad del suelo</t>
+  </si>
+  <si>
+    <t>Sensor calidad aire, temperatura y humedad - ENS160+AHT20</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/dp/B0DGLCWR76/</t>
+  </si>
+  <si>
+    <t>B0DGLCWR76</t>
+  </si>
+  <si>
+    <t>Tablero madera negro 70x50cm</t>
+  </si>
+  <si>
+    <t>Caja componentes eléctricos</t>
+  </si>
+  <si>
+    <t>Deposito agua 3.25L</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.es/productos/pack-de-9-listones-de-abeto-sin-cepillar-13x25x2000mm-ancho-x-espesor-x-largo-82137956.html</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.es/productos/microtubo-para-riego-4mm-negro-de-15-m-90170896.html</t>
+  </si>
+  <si>
+    <t>Microtubo riego por goteo 4 mm 15 m</t>
+  </si>
+  <si>
+    <t>Pack  9 Listones Abeto</t>
+  </si>
+  <si>
+    <t>https://www.leroymerlin.es/productos/sustrato-universal-compo-sana-para-todo-tipo-de-plantas-interior-y-exterior-20l-258972.html</t>
+  </si>
+  <si>
+    <t>Panel Solar 6W 6V</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005007013856492.html</t>
+  </si>
+  <si>
+    <t>https://es.aliexpress.com/item/1005007955979899.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/dp/B08GY9NYRM/</t>
+  </si>
+  <si>
+    <t>B08GY9NYRM</t>
+  </si>
+  <si>
+    <t>Tarjeta MicroSD 32GB SanDisk</t>
+  </si>
+  <si>
+    <t>https://www.todoelectronica.com/cable-dupont-de-40-vias-20cm-hembra-hembra-con-hilo-de-cobre-p-110236.html</t>
+  </si>
+  <si>
+    <t>Cables dupont hembra-hembra</t>
+  </si>
+  <si>
+    <t>https://www.todoelectronica.com/kit-de-128-tubos-termorretractiles-negros-con-medida-y-diametro-variados-p-116767.html</t>
+  </si>
+  <si>
+    <t>Kit 128 tubos termorretráctiles negros</t>
+  </si>
+  <si>
+    <t>Plantas Viveros Sanchez</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>MATERIALES VARIOS</t>
+  </si>
+  <si>
+    <t>TOTAL VARIOS</t>
   </si>
 </sst>
 </file>
@@ -253,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,25 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFDD71"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,12 +626,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,26 +650,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -542,62 +731,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDD71"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -610,7 +770,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -926,21 +1086,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A691390-13AE-41C5-BA26-2B199EF39CC8}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -960,7 +1120,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -978,7 +1138,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -996,7 +1156,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10"/>
@@ -1014,68 +1174,68 @@
       <c r="O4" s="10"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25" t="s">
+      <c r="C5" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="26"/>
+      <c r="O5" s="39"/>
       <c r="P5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="22">
+      <c r="J6" s="25">
         <v>1.2</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="27">
-        <v>1</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27">
+      <c r="K6" s="25"/>
+      <c r="L6" s="26">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26">
         <f>J6*L6</f>
         <v>1.2</v>
       </c>
-      <c r="O6" s="27"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="12"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
-        <v>58</v>
+      <c r="C7" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -1083,695 +1243,793 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>1.35</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26">
         <v>4</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26">
         <f t="shared" ref="N7" si="0">J7*L7</f>
         <v>5.4</v>
       </c>
-      <c r="O7" s="27"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="J8" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26">
+        <v>4</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26">
+        <f t="shared" ref="N8:N10" si="1">J8*L8</f>
+        <v>3.6</v>
+      </c>
+      <c r="O8" s="26"/>
       <c r="P8" s="12"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
+      <c r="J9" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="O9" s="26"/>
       <c r="P9" s="12"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="30" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="J10" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26">
+        <v>1</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="O10" s="26"/>
       <c r="P10" s="12"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="J11" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26">
+        <v>1</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26">
+        <f t="shared" ref="N11" si="2">J11*L11</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O11" s="26"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="J12" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26">
+        <v>1</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26">
+        <f t="shared" ref="N12" si="3">J12*L12</f>
+        <v>1.9</v>
+      </c>
+      <c r="O12" s="26"/>
       <c r="P12" s="12"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="30" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="J14" s="55" t="str">
+        <f>"108.0007"</f>
+        <v>108.0007</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26">
+        <v>1</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O14" s="26"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="30" t="s">
+        <v>95</v>
+      </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="J15" s="26" t="str">
+        <f>"161.250072"</f>
+        <v>161.250072</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26">
+        <v>3.47</v>
+      </c>
+      <c r="O15" s="26"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="56" t="s">
+        <v>97</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="J16" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26">
+        <v>1</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26">
+        <v>10</v>
+      </c>
+      <c r="O16" s="26"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="28"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="23" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="36"/>
+      <c r="L19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="23" t="s">
+      <c r="M19" s="36"/>
+      <c r="N19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="24"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="12"/>
-      <c r="R19" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R19" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="S19" s="39"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="C20" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
       <c r="I20" s="2">
         <v>10490830</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="25">
         <v>1.49</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="27">
-        <v>1</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="22">
+      <c r="K20" s="25"/>
+      <c r="L20" s="26">
+        <v>1</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="25">
         <f>J20*L20</f>
         <v>1.49</v>
       </c>
-      <c r="O20" s="22"/>
+      <c r="O20" s="25"/>
       <c r="P20" s="12"/>
-      <c r="R20" s="22">
+      <c r="R20" s="25">
         <f>SUM(N6:O18)</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="S20" s="22"/>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39.72</v>
+      </c>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="28" t="s">
-        <v>38</v>
+      <c r="C21" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="32" t="s">
-        <v>43</v>
+      <c r="F21" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="2">
         <v>10490725</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="26">
         <v>1.49</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27">
-        <v>1</v>
-      </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
+      <c r="K21" s="26"/>
+      <c r="L21" s="26">
+        <v>1</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26">
         <f>J21*L21</f>
         <v>1.49</v>
       </c>
-      <c r="O21" s="27"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="12"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="28" t="s">
-        <v>44</v>
+      <c r="C22" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="32" t="s">
-        <v>42</v>
+      <c r="F22" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="2">
         <v>90427463</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="26">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27">
-        <v>1</v>
-      </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27">
-        <f t="shared" ref="N22:N28" si="1">J22*L22</f>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26">
+        <v>1</v>
+      </c>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26">
+        <f t="shared" ref="N22:N28" si="4">J22*L22</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="O22" s="27"/>
+      <c r="O22" s="26"/>
       <c r="P22" s="12"/>
-      <c r="R22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" s="24"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="28" t="s">
-        <v>46</v>
+      <c r="C23" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="32" t="s">
-        <v>45</v>
+      <c r="F23" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="1">
         <v>81905336</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="26">
         <v>1.19</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27">
-        <v>1</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27">
-        <f t="shared" si="1"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26">
+        <v>1</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26">
+        <f t="shared" si="4"/>
         <v>1.19</v>
       </c>
-      <c r="O23" s="27"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="12"/>
-      <c r="R23" s="22">
+      <c r="R23" s="25">
         <f>SUM(N20:O31)</f>
-        <v>33.86</v>
-      </c>
-      <c r="S23" s="22"/>
-      <c r="T23" s="48"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48.15</v>
+      </c>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="28" t="s">
-        <v>48</v>
+      <c r="C24" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="32" t="s">
-        <v>47</v>
+      <c r="F24" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="1">
-        <v>17063473</v>
-      </c>
-      <c r="J24" s="27">
+        <v>90170896</v>
+      </c>
+      <c r="J24" s="26">
         <v>3.99</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27">
-        <v>1</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27">
-        <f t="shared" si="1"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26">
+        <v>1</v>
+      </c>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26">
+        <f t="shared" si="4"/>
         <v>3.99</v>
       </c>
-      <c r="O24" s="27"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="12"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="28" t="s">
-        <v>50</v>
+      <c r="C25" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="32" t="s">
-        <v>49</v>
+      <c r="F25" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="1">
         <v>83210897</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="26">
         <v>2.99</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27">
-        <v>1</v>
-      </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27">
-        <f t="shared" si="1"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26">
+        <v>1</v>
+      </c>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26">
+        <f t="shared" si="4"/>
         <v>2.99</v>
       </c>
-      <c r="O25" s="27"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="12"/>
-      <c r="R25" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="S25" s="21"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R25" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="43"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="28" t="s">
-        <v>51</v>
+      <c r="C26" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="32" t="s">
-        <v>52</v>
+      <c r="F26" s="28" t="s">
+        <v>43</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="1">
         <v>83211073</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="26">
         <v>4.29</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27">
-        <v>1</v>
-      </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27">
-        <f t="shared" si="1"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26">
+        <f t="shared" si="4"/>
         <v>4.29</v>
       </c>
-      <c r="O26" s="27"/>
+      <c r="O26" s="26"/>
       <c r="P26" s="12"/>
-      <c r="R26" s="22">
-        <f>SUM(N33:O49)</f>
-        <v>32.83</v>
-      </c>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="25">
+        <f>SUM(N33:O55)</f>
+        <v>55.35</v>
+      </c>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="28" t="s">
-        <v>55</v>
+      <c r="C27" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="32" t="s">
-        <v>56</v>
+      <c r="F27" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="1">
         <v>10603054</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="26">
         <v>12.29</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27">
-        <v>1</v>
-      </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27">
-        <f t="shared" si="1"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26">
+        <v>1</v>
+      </c>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26">
+        <f t="shared" si="4"/>
         <v>12.29</v>
       </c>
-      <c r="O27" s="27"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="12"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="28" t="s">
-        <v>53</v>
+      <c r="C28" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="32" t="s">
-        <v>54</v>
+      <c r="F28" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="1">
-        <v>88594195</v>
-      </c>
-      <c r="J28" s="27">
+        <v>258972</v>
+      </c>
+      <c r="J28" s="26">
         <v>3.89</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27">
-        <v>1</v>
-      </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27">
-        <f t="shared" si="1"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26">
+        <f t="shared" si="4"/>
         <v>3.89</v>
       </c>
-      <c r="O28" s="27"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="12"/>
-      <c r="R28" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="47"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
+      <c r="I29" s="22">
+        <v>82137956</v>
+      </c>
+      <c r="J29" s="26">
+        <v>14.29</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26">
+        <f t="shared" ref="N29" si="5">J29*L29</f>
+        <v>14.29</v>
+      </c>
+      <c r="O29" s="26"/>
       <c r="P29" s="12"/>
-      <c r="R29" s="22">
-        <f>R20+R23+R26</f>
-        <v>73.289999999999992</v>
-      </c>
-      <c r="S29" s="22"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R29" s="25">
+        <f>SUM(N59:O63)</f>
+        <v>45.56</v>
+      </c>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="57"/>
       <c r="P30" s="12"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
       <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="32"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="20" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="20" t="s">
+      <c r="K32" s="43"/>
+      <c r="L32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="21"/>
-      <c r="N32" s="20" t="s">
+      <c r="M32" s="43"/>
+      <c r="N32" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="38"/>
+      <c r="O32" s="42"/>
       <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="25">
+        <f>R20+R23+R26+R29</f>
+        <v>188.78</v>
+      </c>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="2">
         <v>32952790418</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="25">
         <v>3.27</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22">
-        <v>1</v>
-      </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22">
+      <c r="K33" s="25"/>
+      <c r="L33" s="25">
+        <v>1</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25">
         <f>J33*L33</f>
         <v>3.27</v>
       </c>
-      <c r="O33" s="22"/>
+      <c r="O33" s="25"/>
       <c r="P33" s="12"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G34" s="29"/>
@@ -1780,31 +2038,31 @@
         <f>"1005006161998540"</f>
         <v>1005006161998540</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J34" s="26">
         <v>0.87</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27">
-        <v>1</v>
-      </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27">
+      <c r="K34" s="26"/>
+      <c r="L34" s="26">
+        <v>1</v>
+      </c>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26">
         <f>J34*L34</f>
         <v>0.87</v>
       </c>
-      <c r="O34" s="27"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="29"/>
@@ -1813,31 +2071,31 @@
         <f>"1005005565459720"</f>
         <v>1005005565459720</v>
       </c>
-      <c r="J35" s="27">
+      <c r="J35" s="26">
         <v>3.96</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27">
-        <v>1</v>
-      </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27">
-        <f t="shared" ref="N35:N47" si="2">J35*L35</f>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26">
+        <v>1</v>
+      </c>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26">
+        <f t="shared" ref="N35:N47" si="6">J35*L35</f>
         <v>3.96</v>
       </c>
-      <c r="O35" s="27"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="29"/>
@@ -1845,31 +2103,31 @@
       <c r="I36" s="2">
         <v>33022096969</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="26">
         <v>3.9</v>
       </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27">
+      <c r="K36" s="26"/>
+      <c r="L36" s="26">
         <v>2</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27">
-        <f t="shared" si="2"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26">
+        <f t="shared" si="6"/>
         <v>7.8</v>
       </c>
-      <c r="O36" s="27"/>
+      <c r="O36" s="26"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="29"/>
@@ -1878,31 +2136,31 @@
         <f>"1005005626475950"</f>
         <v>1005005626475950</v>
       </c>
-      <c r="J37" s="27">
+      <c r="J37" s="26">
         <v>1.47</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27">
+      <c r="K37" s="26"/>
+      <c r="L37" s="26">
         <v>3</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27">
-        <f t="shared" si="2"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26">
+        <f t="shared" si="6"/>
         <v>4.41</v>
       </c>
-      <c r="O37" s="27"/>
+      <c r="O37" s="26"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="32" t="s">
+      <c r="C38" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="29"/>
@@ -1911,31 +2169,31 @@
         <f>"1005003004790140"</f>
         <v>1005003004790140</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="26">
         <v>1.19</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27">
-        <v>1</v>
-      </c>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27">
-        <f t="shared" si="2"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26">
+        <v>1</v>
+      </c>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26">
+        <f t="shared" si="6"/>
         <v>1.19</v>
       </c>
-      <c r="O38" s="27"/>
+      <c r="O38" s="26"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="29"/>
@@ -1944,31 +2202,31 @@
         <f>"1005006263457740"</f>
         <v>1005006263457740</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="47">
         <v>0.87</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27">
-        <v>1</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27">
-        <f t="shared" si="2"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26">
+        <v>1</v>
+      </c>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26">
+        <f t="shared" si="6"/>
         <v>0.87</v>
       </c>
-      <c r="O39" s="27"/>
+      <c r="O39" s="26"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G40" s="29"/>
@@ -1977,31 +2235,31 @@
         <f>"1005006263457740"</f>
         <v>1005006263457740</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="26">
         <v>0.83</v>
       </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27">
-        <v>1</v>
-      </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27">
-        <f t="shared" si="2"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26">
+        <v>1</v>
+      </c>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26">
+        <f t="shared" si="6"/>
         <v>0.83</v>
       </c>
-      <c r="O40" s="27"/>
+      <c r="O40" s="26"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G41" s="29"/>
@@ -2010,31 +2268,31 @@
         <f>"1005006263457740"</f>
         <v>1005006263457740</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J41" s="26">
         <v>0.85</v>
       </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27">
-        <v>1</v>
-      </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27">
-        <f t="shared" si="2"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26">
+        <v>1</v>
+      </c>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26">
+        <f t="shared" si="6"/>
         <v>0.85</v>
       </c>
-      <c r="O41" s="27"/>
+      <c r="O41" s="26"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="28" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="29"/>
@@ -2043,31 +2301,31 @@
         <f>"1005005591145840"</f>
         <v>1005005591145840</v>
       </c>
-      <c r="J42" s="27">
+      <c r="J42" s="26">
         <v>0.88</v>
       </c>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27">
-        <v>1</v>
-      </c>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27">
-        <f t="shared" si="2"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26">
+        <v>1</v>
+      </c>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26">
+        <f t="shared" si="6"/>
         <v>0.88</v>
       </c>
-      <c r="O42" s="27"/>
+      <c r="O42" s="26"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="12"/>
-      <c r="C43" s="28" t="s">
-        <v>31</v>
+      <c r="C43" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="28" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="29"/>
@@ -2075,31 +2333,31 @@
       <c r="I43" s="2">
         <v>32869484514</v>
       </c>
-      <c r="J43" s="27">
+      <c r="J43" s="26">
         <v>2</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27">
-        <v>1</v>
-      </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27">
-        <f t="shared" si="2"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26">
+        <v>1</v>
+      </c>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O43" s="27"/>
+      <c r="O43" s="26"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="28" t="s">
-        <v>25</v>
+      <c r="C44" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="28" t="s">
         <v>24</v>
       </c>
       <c r="G44" s="29"/>
@@ -2108,32 +2366,32 @@
         <f>"1005006125242040"</f>
         <v>1005006125242040</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J44" s="26">
         <v>0.99</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27">
-        <v>1</v>
-      </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27">
-        <f t="shared" si="2"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26">
+        <v>1</v>
+      </c>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26">
+        <f t="shared" si="6"/>
         <v>0.99</v>
       </c>
-      <c r="O44" s="27"/>
+      <c r="O44" s="26"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="28" t="s">
-        <v>27</v>
+      <c r="C45" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
-      <c r="F45" s="32" t="s">
-        <v>26</v>
+      <c r="F45" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
@@ -2141,32 +2399,32 @@
         <f>"1005004926993350"</f>
         <v>1005004926993350</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="26">
         <v>2.42</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27">
-        <v>1</v>
-      </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27">
-        <f t="shared" si="2"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26">
+        <v>1</v>
+      </c>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26">
+        <f t="shared" si="6"/>
         <v>2.42</v>
       </c>
-      <c r="O45" s="27"/>
+      <c r="O45" s="26"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="28" t="s">
-        <v>29</v>
+      <c r="C46" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
-      <c r="F46" s="32" t="s">
-        <v>28</v>
+      <c r="F46" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
@@ -2174,32 +2432,32 @@
         <f>"1005006389574520"</f>
         <v>1005006389574520</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J46" s="26">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27">
-        <v>1</v>
-      </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27">
-        <f t="shared" si="2"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26">
+        <v>1</v>
+      </c>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26">
+        <f t="shared" si="6"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="O46" s="27"/>
+      <c r="O46" s="26"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="28" t="s">
-        <v>33</v>
+      <c r="C47" s="30" t="s">
+        <v>52</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
-      <c r="F47" s="32" t="s">
-        <v>32</v>
+      <c r="F47" s="28" t="s">
+        <v>28</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
@@ -2207,210 +2465,683 @@
         <f>"1005005630775590"</f>
         <v>1005005630775590</v>
       </c>
-      <c r="J47" s="27">
+      <c r="J47" s="26">
         <v>0.96</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27">
+      <c r="K47" s="26"/>
+      <c r="L47" s="26">
         <v>2</v>
       </c>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27">
-        <f t="shared" si="2"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26">
+        <f t="shared" si="6"/>
         <v>1.92</v>
       </c>
-      <c r="O47" s="27"/>
+      <c r="O47" s="26"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="28"/>
+      <c r="C48" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="F48" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="I48" s="2" t="str">
+        <f>"1005007955979899"</f>
+        <v>1005007955979899</v>
+      </c>
+      <c r="J48" s="26">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26">
+        <v>2</v>
+      </c>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26">
+        <f t="shared" ref="N48" si="7">J48*L48</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="O48" s="26"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="28"/>
+      <c r="C49" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
+      <c r="F49" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="I49" s="21" t="str">
+        <f>"1005007013856490"</f>
+        <v>1005007013856490</v>
+      </c>
+      <c r="J49" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26">
+        <v>2</v>
+      </c>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26">
+        <f t="shared" ref="N49:N57" si="8">J49*L49</f>
+        <v>1.86</v>
+      </c>
+      <c r="O49" s="26"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+      <c r="C50" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="2" t="str">
+        <f>"1005006990183423"</f>
+        <v>1005006990183423</v>
+      </c>
+      <c r="J50" s="26">
+        <v>1.77</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26">
+        <v>1</v>
+      </c>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26">
+        <f t="shared" si="8"/>
+        <v>1.77</v>
+      </c>
+      <c r="O50" s="26"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="2" t="str">
+        <f>"1005005827656117"</f>
+        <v>1005005827656117</v>
+      </c>
+      <c r="J51" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26">
+        <v>1</v>
+      </c>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="O51" s="26"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="16"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+      <c r="C52" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="2" t="str">
+        <f>"1005006864225593"</f>
+        <v>1005006864225593</v>
+      </c>
+      <c r="J52" s="26">
+        <v>2.58</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26">
+        <v>2</v>
+      </c>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26">
+        <f t="shared" si="8"/>
+        <v>5.16</v>
+      </c>
+      <c r="O52" s="26"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="2" t="str">
+        <f>"1005006124044420"</f>
+        <v>1005006124044420</v>
+      </c>
+      <c r="J53" s="26">
+        <v>1.79</v>
+      </c>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26">
+        <v>1</v>
+      </c>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26">
+        <f t="shared" si="8"/>
+        <v>1.79</v>
+      </c>
+      <c r="O53" s="26"/>
+      <c r="P53" s="12"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="2" t="str">
+        <f>"1005005968856522"</f>
+        <v>1005005968856522</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26">
+        <v>1</v>
+      </c>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="O54" s="26"/>
+      <c r="P54" s="12"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="2" t="str">
+        <f>"1005006283625820"</f>
+        <v>1005006283625820</v>
+      </c>
+      <c r="J55" s="26">
+        <v>0.86</v>
+      </c>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26">
+        <v>1</v>
+      </c>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26">
+        <f t="shared" si="8"/>
+        <v>0.86</v>
+      </c>
+      <c r="O55" s="26"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="26"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="12"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="26"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="12"/>
+      <c r="C58" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="27"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O58" s="27"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="26">
+        <v>6</v>
+      </c>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26">
+        <v>3</v>
+      </c>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26">
+        <f t="shared" ref="N59" si="9">J59*L59</f>
+        <v>18</v>
+      </c>
+      <c r="O59" s="26"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" s="26">
+        <v>9.5</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26">
+        <v>2</v>
+      </c>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26">
+        <f t="shared" ref="N60" si="10">J60*L60</f>
+        <v>19</v>
+      </c>
+      <c r="O60" s="26"/>
+      <c r="P60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+      <c r="C61" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="26">
+        <v>8.56</v>
+      </c>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26">
+        <v>1</v>
+      </c>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26">
+        <f t="shared" ref="N61" si="11">J61*L61</f>
+        <v>8.56</v>
+      </c>
+      <c r="O61" s="26"/>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="12"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="15"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="233">
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
+  <mergeCells count="305">
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="J20:K20"/>
@@ -2430,166 +3161,138 @@
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C47:E47"/>
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F33" r:id="rId1" xr:uid="{1A3256EF-CC26-4928-8CC9-B61D52A3854D}"/>
@@ -2616,8 +3319,22 @@
     <hyperlink ref="F26" r:id="rId22" xr:uid="{FCE65F1C-DE12-4948-88F4-A7DD4D5CDD7E}"/>
     <hyperlink ref="F28" r:id="rId23" xr:uid="{8204F8A7-E247-40D4-B8E1-C52C9B3D9BEE}"/>
     <hyperlink ref="F27" r:id="rId24" xr:uid="{71B74D8A-2E14-432B-9F12-0A11AF56D949}"/>
+    <hyperlink ref="F48" r:id="rId25" xr:uid="{FE141795-B513-406B-9C41-649AAF52EFB8}"/>
+    <hyperlink ref="F49" r:id="rId26" xr:uid="{B060EA50-3BCA-400A-BAFD-5A809ED59C3F}"/>
+    <hyperlink ref="F50" r:id="rId27" xr:uid="{A00FB3BE-D0A6-4ECC-8DCD-4346AF6F03CD}"/>
+    <hyperlink ref="F51" r:id="rId28" xr:uid="{D12783B5-F008-4561-9853-37F78A907404}"/>
+    <hyperlink ref="F52" r:id="rId29" xr:uid="{EE82F179-7A78-4AF9-9482-91E928001081}"/>
+    <hyperlink ref="F53" r:id="rId30" xr:uid="{4696E1F3-BFA7-4689-9C42-CF6E767BC68F}"/>
+    <hyperlink ref="F54" r:id="rId31" xr:uid="{B89B661B-304B-4A9C-8153-2052C9760F12}"/>
+    <hyperlink ref="F55" r:id="rId32" xr:uid="{346E29EE-DFB6-445E-BCDF-BCE0B944D558}"/>
+    <hyperlink ref="F59" r:id="rId33" xr:uid="{73D5B896-26E0-43E8-AC7B-8D6C0D20C627}"/>
+    <hyperlink ref="F60" r:id="rId34" xr:uid="{9B439CF0-32D0-4F03-9EBF-5DBDE225B460}"/>
+    <hyperlink ref="F29" r:id="rId35" xr:uid="{31FD4B57-0A22-4F35-A4F1-18A116343017}"/>
+    <hyperlink ref="F61" r:id="rId36" xr:uid="{44554198-39A9-4D42-A33E-B1AC1F9F90A6}"/>
+    <hyperlink ref="F14" r:id="rId37" xr:uid="{78E1EC6A-6E76-4F24-A112-94B836AF4495}"/>
+    <hyperlink ref="F15" r:id="rId38" xr:uid="{484F4FCA-A10E-41B2-BBBD-FC6C5D52F98C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>